--- a/PF2/load_test_results_async.xlsx
+++ b/PF2/load_test_results_async.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galaxy\Desktop\SA4E\SA4E_PF2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galaxy\Desktop\SA4E\SA4E_PF1\PF2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD24C23-BA24-4EA0-A056-79BA2F162D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14104AA-1CDD-4D36-B0F2-F08FE6AF86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,10 +392,10 @@
         <v>159</v>
       </c>
       <c r="B2">
-        <v>8.1045866012573242E-2</v>
+        <v>0.73703742027282715</v>
       </c>
       <c r="C2">
-        <v>1961.852069978908</v>
+        <v>215.72853104411359</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -403,10 +403,10 @@
         <v>264</v>
       </c>
       <c r="B3">
-        <v>9.9644184112548828E-2</v>
+        <v>0.39953231811523438</v>
       </c>
       <c r="C3">
-        <v>2649.4270824859191</v>
+        <v>660.77257841218318</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -414,10 +414,10 @@
         <v>462</v>
       </c>
       <c r="B4">
-        <v>0.14073872566223139</v>
+        <v>0.44846773147583008</v>
       </c>
       <c r="C4">
-        <v>3282.6785792333062</v>
+        <v>1030.1744530863739</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -425,10 +425,10 @@
         <v>854</v>
       </c>
       <c r="B5">
-        <v>0.22853326797485349</v>
+        <v>0.78023028373718262</v>
       </c>
       <c r="C5">
-        <v>3736.8738808477078</v>
+        <v>1094.5486451890481</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -436,10 +436,10 @@
         <v>1678</v>
       </c>
       <c r="B6">
-        <v>0.51671028137207031</v>
+        <v>1.4380354881286621</v>
       </c>
       <c r="C6">
-        <v>3247.467798674812</v>
+        <v>1166.869673142495</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -447,10 +447,10 @@
         <v>3526</v>
       </c>
       <c r="B7">
-        <v>0.82046723365783691</v>
+        <v>2.5935835838317871</v>
       </c>
       <c r="C7">
-        <v>4297.5512675628233</v>
+        <v>1359.5089134511909</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -458,10 +458,10 @@
         <v>7981</v>
       </c>
       <c r="B8">
-        <v>4.7357251644134521</v>
+        <v>7.023740291595459</v>
       </c>
       <c r="C8">
-        <v>1685.275163342063</v>
+        <v>1136.289166265158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -469,10 +469,10 @@
         <v>19601</v>
       </c>
       <c r="B9">
-        <v>8.9820175170898438</v>
+        <v>17.60385537147522</v>
       </c>
       <c r="C9">
-        <v>2182.2491397623871</v>
+        <v>1113.4492749673971</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -480,32 +480,10 @@
         <v>52664</v>
       </c>
       <c r="B10">
-        <v>21.326930284500119</v>
+        <v>60.156368494033813</v>
       </c>
       <c r="C10">
-        <v>2469.3661627559632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>156195</v>
-      </c>
-      <c r="B11">
-        <v>50.391596555709839</v>
-      </c>
-      <c r="C11">
-        <v>3099.6239586757379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>516457</v>
-      </c>
-      <c r="B12">
-        <v>154.33407664299011</v>
-      </c>
-      <c r="C12">
-        <v>3346.357533175792</v>
+        <v>875.45178205401658</v>
       </c>
     </row>
   </sheetData>
